--- a/valorizacao_anual/ranking_de_2016_a_2021_feito_em_30_01.xlsx
+++ b/valorizacao_anual/ranking_de_2016_a_2021_feito_em_30_01.xlsx
@@ -34,517 +34,517 @@
     <t>LCAM3</t>
   </si>
   <si>
+    <t>BRAP4</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>VVAR3</t>
+  </si>
+  <si>
     <t>BPAN4</t>
   </si>
   <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
     <t>ROMI3</t>
   </si>
   <si>
+    <t>TASA4</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>GOLL4</t>
+  </si>
+  <si>
+    <t>SQIA3</t>
+  </si>
+  <si>
     <t>TRIS3</t>
   </si>
   <si>
-    <t>TASA4</t>
-  </si>
-  <si>
-    <t>GOLL4</t>
-  </si>
-  <si>
-    <t>SQIA3</t>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>GOAU4</t>
+  </si>
+  <si>
+    <t>SAPR11</t>
+  </si>
+  <si>
+    <t>JHSF3</t>
+  </si>
+  <si>
+    <t>VALE3</t>
+  </si>
+  <si>
+    <t>POSI3</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>RENT3</t>
+  </si>
+  <si>
+    <t>SIMH3</t>
   </si>
   <si>
     <t>VULC3</t>
   </si>
   <si>
+    <t>ALPA4</t>
+  </si>
+  <si>
+    <t>GNDI3</t>
+  </si>
+  <si>
+    <t>TGMA3</t>
+  </si>
+  <si>
+    <t>QUAL3</t>
+  </si>
+  <si>
+    <t>CARD3</t>
+  </si>
+  <si>
+    <t>GGBR4</t>
+  </si>
+  <si>
+    <t>CNTO3</t>
+  </si>
+  <si>
+    <t>BTOW3</t>
+  </si>
+  <si>
+    <t>RAPT4</t>
+  </si>
+  <si>
+    <t>CSMG3</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
     <t>LOGN3</t>
   </si>
   <si>
-    <t>BTOW3</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>JHSF3</t>
-  </si>
-  <si>
-    <t>RENT3</t>
-  </si>
-  <si>
-    <t>VVAR3</t>
-  </si>
-  <si>
-    <t>SIMH3</t>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
+    <t>PETR4</t>
+  </si>
+  <si>
+    <t>SEER3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>SLCE3</t>
   </si>
   <si>
     <t>PTBL3</t>
   </si>
   <si>
-    <t>SLCE3</t>
-  </si>
-  <si>
-    <t>GNDI3</t>
-  </si>
-  <si>
-    <t>BRAP4</t>
-  </si>
-  <si>
-    <t>ALPA4</t>
-  </si>
-  <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
-    <t>TGMA3</t>
+    <t>RLOG3</t>
   </si>
   <si>
     <t>FESA4</t>
   </si>
   <si>
-    <t>POSI3</t>
-  </si>
-  <si>
-    <t>CNTO3</t>
-  </si>
-  <si>
-    <t>QUAL3</t>
-  </si>
-  <si>
-    <t>RAPT4</t>
+    <t>TEND3</t>
+  </si>
+  <si>
+    <t>SEQL3</t>
+  </si>
+  <si>
+    <t>RADL3</t>
+  </si>
+  <si>
+    <t>PNVL3</t>
+  </si>
+  <si>
+    <t>HAPV3</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>AERI3</t>
+  </si>
+  <si>
+    <t>ARZZ3</t>
+  </si>
+  <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
   </si>
   <si>
     <t>SUZB3</t>
   </si>
   <si>
-    <t>CASH3</t>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>BRSR6</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>GUAR3</t>
   </si>
   <si>
     <t>ETER3</t>
   </si>
   <si>
-    <t>USIM5</t>
-  </si>
-  <si>
-    <t>CARD3</t>
-  </si>
-  <si>
-    <t>RLOG3</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>VALE3</t>
-  </si>
-  <si>
-    <t>EZTC3</t>
-  </si>
-  <si>
-    <t>NTCO3</t>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
+    <t>MOVI3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>RAIL3</t>
+  </si>
+  <si>
+    <t>NGRD3</t>
+  </si>
+  <si>
+    <t>EVEN3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>ECOR3</t>
+  </si>
+  <si>
+    <t>BIDI11</t>
+  </si>
+  <si>
+    <t>TOTS3</t>
   </si>
   <si>
     <t>ENAT3</t>
   </si>
   <si>
-    <t>RAIL3</t>
-  </si>
-  <si>
-    <t>ARZZ3</t>
-  </si>
-  <si>
-    <t>TOTS3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>EVEN3</t>
-  </si>
-  <si>
-    <t>TEND3</t>
-  </si>
-  <si>
-    <t>SEQL3</t>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>DTEX3</t>
+  </si>
+  <si>
+    <t>RRRP3</t>
+  </si>
+  <si>
+    <t>MRVE3</t>
   </si>
   <si>
     <t>ANIM3</t>
   </si>
   <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>GUAR3</t>
-  </si>
-  <si>
-    <t>HAPV3</t>
-  </si>
-  <si>
-    <t>AERI3</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>DTEX3</t>
+    <t>TRPL4</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
+    <t>OMGE3</t>
+  </si>
+  <si>
+    <t>MILS3</t>
+  </si>
+  <si>
+    <t>ENJU3</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>TAEE11</t>
+  </si>
+  <si>
+    <t>OIBR3</t>
+  </si>
+  <si>
+    <t>LOGG3</t>
+  </si>
+  <si>
+    <t>ABCB4</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
+    <t>CPFE3</t>
+  </si>
+  <si>
+    <t>PETZ3</t>
+  </si>
+  <si>
+    <t>TCFO3</t>
+  </si>
+  <si>
+    <t>AGRO3</t>
+  </si>
+  <si>
+    <t>HBOR3</t>
+  </si>
+  <si>
+    <t>CESP6</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>BOVA11</t>
+  </si>
+  <si>
+    <t>LIGT3</t>
   </si>
   <si>
     <t>STBP3</t>
   </si>
   <si>
-    <t>MOVI3</t>
-  </si>
-  <si>
-    <t>NGRD3</t>
-  </si>
-  <si>
-    <t>BIDI11</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
-    <t>OIBR3</t>
-  </si>
-  <si>
-    <t>IRBR3</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>RRRP3</t>
-  </si>
-  <si>
-    <t>MRVE3</t>
-  </si>
-  <si>
-    <t>RADL3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>HBOR3</t>
-  </si>
-  <si>
-    <t>AGRO3</t>
-  </si>
-  <si>
-    <t>CESP6</t>
-  </si>
-  <si>
-    <t>OMGE3</t>
-  </si>
-  <si>
-    <t>ENJU3</t>
-  </si>
-  <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>LOGG3</t>
+    <t>IBOV</t>
+  </si>
+  <si>
+    <t>LINX3</t>
+  </si>
+  <si>
+    <t>SOMA3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>AZUL4</t>
   </si>
   <si>
     <t>JBSS3</t>
   </si>
   <si>
+    <t>LJQQ3</t>
+  </si>
+  <si>
+    <t>BRDT3</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>NEOE3</t>
+  </si>
+  <si>
+    <t>CURY3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>AMAR3</t>
+  </si>
+  <si>
+    <t>ALSO3</t>
+  </si>
+  <si>
+    <t>SMTO3</t>
+  </si>
+  <si>
+    <t>IGTA3</t>
+  </si>
+  <si>
     <t>PSSA3</t>
   </si>
   <si>
-    <t>GOAU4</t>
+    <t>EGIE3</t>
+  </si>
+  <si>
+    <t>POMO4</t>
+  </si>
+  <si>
+    <t>PGMN3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>PARD3</t>
+  </si>
+  <si>
+    <t>ENBR3</t>
+  </si>
+  <si>
+    <t>PFRM3</t>
+  </si>
+  <si>
+    <t>WIZS3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>VIVA3</t>
+  </si>
+  <si>
+    <t>TIET11</t>
+  </si>
+  <si>
+    <t>MDIA3</t>
+  </si>
+  <si>
+    <t>GRND3</t>
+  </si>
+  <si>
+    <t>LAVV3</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>ODPV3</t>
+  </si>
+  <si>
+    <t>HGTX3</t>
+  </si>
+  <si>
+    <t>BBSE3</t>
+  </si>
+  <si>
+    <t>GMAT3</t>
+  </si>
+  <si>
+    <t>BRML3</t>
+  </si>
+  <si>
+    <t>HBSA3</t>
+  </si>
+  <si>
+    <t>CAML3</t>
+  </si>
+  <si>
+    <t>AMBP3</t>
+  </si>
+  <si>
+    <t>MYPK3</t>
+  </si>
+  <si>
+    <t>JPSA3</t>
+  </si>
+  <si>
+    <t>LAME4</t>
   </si>
   <si>
     <t>TUPY3</t>
   </si>
   <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>PETZ3</t>
-  </si>
-  <si>
-    <t>GGBR4</t>
-  </si>
-  <si>
-    <t>LINX3</t>
-  </si>
-  <si>
-    <t>TCFO3</t>
-  </si>
-  <si>
-    <t>TRPL4</t>
-  </si>
-  <si>
-    <t>ALSO3</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>TAEE11</t>
-  </si>
-  <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>SOMA3</t>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>KLBN11</t>
   </si>
   <si>
     <t>PCAR3</t>
   </si>
   <si>
-    <t>ECOR3</t>
-  </si>
-  <si>
-    <t>MILS3</t>
-  </si>
-  <si>
-    <t>AZUL4</t>
-  </si>
-  <si>
-    <t>BRSR6</t>
-  </si>
-  <si>
-    <t>LJQQ3</t>
-  </si>
-  <si>
-    <t>BRDT3</t>
-  </si>
-  <si>
-    <t>EGIE3</t>
-  </si>
-  <si>
-    <t>MYPK3</t>
-  </si>
-  <si>
-    <t>PETR4</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>GRND3</t>
-  </si>
-  <si>
-    <t>BOVA11</t>
-  </si>
-  <si>
-    <t>IBOV</t>
-  </si>
-  <si>
-    <t>HGTX3</t>
-  </si>
-  <si>
-    <t>CSMG3</t>
-  </si>
-  <si>
-    <t>KLBN11</t>
-  </si>
-  <si>
-    <t>NEOE3</t>
-  </si>
-  <si>
-    <t>AMAR3</t>
-  </si>
-  <si>
-    <t>CURY3</t>
-  </si>
-  <si>
-    <t>SBSP3</t>
-  </si>
-  <si>
-    <t>SEER3</t>
-  </si>
-  <si>
-    <t>CVCB3</t>
-  </si>
-  <si>
-    <t>PGMN3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>PARD3</t>
-  </si>
-  <si>
-    <t>SMTO3</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
-  </si>
-  <si>
-    <t>ENBR3</t>
-  </si>
-  <si>
-    <t>TIET11</t>
-  </si>
-  <si>
-    <t>IGTA3</t>
-  </si>
-  <si>
-    <t>VIVA3</t>
-  </si>
-  <si>
-    <t>SAPR11</t>
+    <t>BOAS3</t>
+  </si>
+  <si>
+    <t>CEAB3</t>
+  </si>
+  <si>
+    <t>MELK3</t>
+  </si>
+  <si>
+    <t>MTRE3</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>PLPL3</t>
+  </si>
+  <si>
+    <t>BRKM5</t>
+  </si>
+  <si>
+    <t>DMFV3</t>
+  </si>
+  <si>
+    <t>BMGB4</t>
+  </si>
+  <si>
+    <t>SMLS3</t>
   </si>
   <si>
     <t>BRPR3</t>
   </si>
   <si>
-    <t>ABCB4</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>LAVV3</t>
-  </si>
-  <si>
-    <t>RDOR3</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>LAME4</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>CPFE3</t>
-  </si>
-  <si>
-    <t>GMAT3</t>
-  </si>
-  <si>
-    <t>BBSE3</t>
-  </si>
-  <si>
-    <t>HBSA3</t>
-  </si>
-  <si>
-    <t>CAML3</t>
-  </si>
-  <si>
-    <t>POMO4</t>
-  </si>
-  <si>
-    <t>AMBP3</t>
-  </si>
-  <si>
-    <t>ODPV3</t>
-  </si>
-  <si>
-    <t>JPSA3</t>
-  </si>
-  <si>
-    <t>PNVL3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>LIGT3</t>
-  </si>
-  <si>
-    <t>BRML3</t>
-  </si>
-  <si>
-    <t>WIZS3</t>
-  </si>
-  <si>
-    <t>BOAS3</t>
-  </si>
-  <si>
-    <t>CEAB3</t>
+    <t>PRNR3</t>
+  </si>
+  <si>
+    <t>MDNE3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
   </si>
   <si>
     <t>LEVE3</t>
   </si>
   <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>MELK3</t>
-  </si>
-  <si>
-    <t>MTRE3</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>PLPL3</t>
-  </si>
-  <si>
-    <t>DMFV3</t>
-  </si>
-  <si>
-    <t>BMGB4</t>
-  </si>
-  <si>
-    <t>SMLS3</t>
-  </si>
-  <si>
-    <t>PRNR3</t>
-  </si>
-  <si>
-    <t>PFRM3</t>
-  </si>
-  <si>
-    <t>BRKM5</t>
-  </si>
-  <si>
-    <t>MDIA3</t>
-  </si>
-  <si>
-    <t>MDNE3</t>
+    <t>COGN3</t>
   </si>
   <si>
     <t>UGPA3</t>
   </si>
   <si>
+    <t>BKBR3</t>
+  </si>
+  <si>
     <t>AALR3</t>
   </si>
   <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
     <t>EMBR3</t>
   </si>
   <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>BKBR3</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
     <t>GFSA3</t>
   </si>
   <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
     <t>VLID3</t>
-  </si>
-  <si>
-    <t>CIEL3</t>
   </si>
   <si>
     <t>BBRK3</t>
@@ -927,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>7.867026201945096</v>
+        <v>12.26857601034515</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -938,7 +938,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>5.44331598786699</v>
+        <v>5.403998419159723</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>4.476415629051313</v>
+        <v>4.347110610166965</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>3.729905986485562</v>
+        <v>3.942165093313081</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -971,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>3.475717746387212</v>
+        <v>3.382828854972813</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -993,7 +993,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>2.98758137563135</v>
+        <v>3.031989239091519</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>2.942610098470789</v>
+        <v>2.98072730392416</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>2.596666891512464</v>
+        <v>2.894118868697558</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>2.555500264790736</v>
+        <v>2.874886067231789</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>2.54789698041429</v>
+        <v>2.854936521828433</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>2.33030694039111</v>
+        <v>2.823478006712102</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>2.30488419821061</v>
+        <v>2.744937632090315</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>2.304579773511409</v>
+        <v>2.696266408200608</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>2.254260228614345</v>
+        <v>2.692443480796118</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>2.194809002960152</v>
+        <v>2.655340980976026</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>1.940115421907292</v>
+        <v>2.245064421335146</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>1.889772844488531</v>
+        <v>2.226963702095744</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>1.843202284237797</v>
+        <v>2.062031068190693</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1136,7 +1136,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>1.77921136963155</v>
+        <v>1.998891167662361</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1147,7 +1147,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>1.770056782655866</v>
+        <v>1.996398931638336</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1158,7 +1158,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>1.762453700815603</v>
+        <v>1.976536281073671</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>1.738551410347111</v>
+        <v>1.936928111735139</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>1.697712626075156</v>
+        <v>1.891088257847564</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>1.68082624747064</v>
+        <v>1.793320855377823</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>1.673367281121511</v>
+        <v>1.776103958456857</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>1.615679830386842</v>
+        <v>1.762453700815603</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>1.59737489520835</v>
+        <v>1.757114913940608</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>1.571867037678231</v>
+        <v>1.689715565436353</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>1.537169196974788</v>
+        <v>1.667048568709042</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1257,7 +1257,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>1.490723373404976</v>
+        <v>1.577389459978956</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>1.45469861103052</v>
+        <v>1.571867037678231</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>1.384005235055414</v>
+        <v>1.541244851505239</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>1.382679346738055</v>
+        <v>1.496146684606427</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>1.361673786017289</v>
+        <v>1.472003971876927</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>1.354539139739112</v>
+        <v>1.469758623762349</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>1.328651804199227</v>
+        <v>1.445682454832981</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>1.303732496661559</v>
+        <v>1.432327490537149</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1345,7 +1345,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>1.303510582724065</v>
+        <v>1.384005235055414</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1356,7 +1356,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>1.294520018367927</v>
+        <v>1.318960083622679</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1367,7 +1367,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>1.25106703849213</v>
+        <v>1.317464710594105</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>1.247823829594688</v>
+        <v>1.313264420926332</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>1.223413940902261</v>
+        <v>1.281042480661993</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1400,7 +1400,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>1.210423573111964</v>
+        <v>1.243422294270006</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>1.208447707573658</v>
+        <v>1.239912028592781</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>1.171723061661547</v>
+        <v>1.205574164129535</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1433,7 +1433,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>1.155284621239636</v>
+        <v>1.203221766137546</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1466,7 +1466,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>1.100455386009895</v>
+        <v>1.102683123501513</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1477,7 +1477,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>1.064840329358661</v>
+        <v>1.086997637526649</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1488,7 +1488,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>1.049784514556704</v>
+        <v>1.043700371073147</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1499,7 +1499,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>1.043700371073147</v>
+        <v>1.040709186374487</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1521,7 +1521,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>0.9059876183223796</v>
+        <v>0.9572727585148793</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1532,7 +1532,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>0.8764520084165311</v>
+        <v>0.9567150605040122</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>0.8371228499643706</v>
+        <v>0.9387601759706736</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>0.8160432771263051</v>
+        <v>0.9364399858466117</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1565,7 +1565,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>0.794593034384677</v>
+        <v>0.9363886796980176</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1576,7 +1576,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>0.7697020898980216</v>
+        <v>0.9059681050742705</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1587,7 +1587,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>0.7491579648262615</v>
+        <v>0.905041779335376</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1598,7 +1598,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>0.7429556096156452</v>
+        <v>0.8892646528770183</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1609,7 +1609,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>0.7269332031410338</v>
+        <v>0.863240584057298</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1620,7 +1620,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>0.7154331184568176</v>
+        <v>0.8505948479888048</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1631,7 +1631,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>0.7102081649367653</v>
+        <v>0.8265530146837223</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1642,7 +1642,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>0.7030053897986663</v>
+        <v>0.819731809768773</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1653,7 +1653,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>0.7018795406787738</v>
+        <v>0.794593034384677</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1664,7 +1664,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>0.6746027568742463</v>
+        <v>0.7836436125330701</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>0.6500867381124749</v>
+        <v>0.7794785385279297</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1686,7 +1686,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>0.6472423290736733</v>
+        <v>0.7697020898980216</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1697,7 +1697,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>0.6420952190332597</v>
+        <v>0.7693220850587057</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1708,7 +1708,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>0.6004322517657721</v>
+        <v>0.7638837879168292</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1719,7 +1719,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>0.5985392435904439</v>
+        <v>0.7548240318564525</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1730,7 +1730,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0.5847740813851672</v>
+        <v>0.7491579648262615</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1741,7 +1741,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>0.5675238145928257</v>
+        <v>0.7424797587390094</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1752,7 +1752,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>0.5512136670888141</v>
+        <v>0.7375561715640172</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>0.5315824700140324</v>
+        <v>0.7154331184568176</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1774,7 +1774,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>0.5190001361636168</v>
+        <v>0.7072792261310887</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1785,7 +1785,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>0.5026357449817825</v>
+        <v>0.7030053897986663</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>0.4933236033879511</v>
+        <v>0.6988455562386445</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1807,7 +1807,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>0.4892653052934041</v>
+        <v>0.6964184490786721</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1818,7 +1818,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>0.4820585927195933</v>
+        <v>0.6884061077486572</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1829,7 +1829,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>0.4705943240272533</v>
+        <v>0.6777688469234215</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1840,7 +1840,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>0.4646778171896865</v>
+        <v>0.6107257199205626</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1851,7 +1851,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>0.459037459276304</v>
+        <v>0.5985392435904439</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1862,7 +1862,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>0.4463062934414126</v>
+        <v>0.5979615067210131</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>0.4287104232335887</v>
+        <v>0.5847740813851672</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1884,7 +1884,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>0.4153685051188587</v>
+        <v>0.580080181230032</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1895,7 +1895,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>0.4016384294221642</v>
+        <v>0.5785564390113691</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1906,7 +1906,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>0.3986339477321819</v>
+        <v>0.5750610665403634</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>0.3822245196857884</v>
+        <v>0.5512136670888141</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1928,7 +1928,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>0.3694286781172846</v>
+        <v>0.5342455181720069</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1939,7 +1939,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>0.3652486696295315</v>
+        <v>0.520588761776281</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1950,7 +1950,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>0.3555957594090042</v>
+        <v>0.5115890155806337</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1961,7 +1961,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>0.3430900881347252</v>
+        <v>0.4820585927195933</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1972,7 +1972,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>0.3379586876469295</v>
+        <v>0.459037459276304</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>0.3345527969243445</v>
+        <v>0.4559730535975761</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1994,7 +1994,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>0.3206129789419936</v>
+        <v>0.4299260564353362</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2005,7 +2005,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>0.3050041099217171</v>
+        <v>0.4256622373476483</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2016,7 +2016,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>0.3038661328168203</v>
+        <v>0.42511980058724</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2027,7 +2027,7 @@
         <v>102</v>
       </c>
       <c r="C102">
-        <v>0.3021187932187791</v>
+        <v>0.4165700602692973</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>0.3007435159488241</v>
+        <v>0.4142401350231071</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2049,7 +2049,7 @@
         <v>104</v>
       </c>
       <c r="C104">
-        <v>0.2929220628169124</v>
+        <v>0.410988854071575</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2060,7 +2060,7 @@
         <v>105</v>
       </c>
       <c r="C105">
-        <v>0.2776832091157538</v>
+        <v>0.3893611165770949</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2071,7 +2071,7 @@
         <v>106</v>
       </c>
       <c r="C106">
-        <v>0.2698870685125123</v>
+        <v>0.3768371204484834</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>0.2685626845509212</v>
+        <v>0.3694286781172846</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2093,7 +2093,7 @@
         <v>108</v>
       </c>
       <c r="C108">
-        <v>0.2675538895444712</v>
+        <v>0.339726724380806</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2104,7 +2104,7 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>0.2595357222260667</v>
+        <v>0.3379586876469295</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2115,7 +2115,7 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>0.2516610958638033</v>
+        <v>0.3352210640516914</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2126,7 +2126,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>0.2406032938234317</v>
+        <v>0.3206129789419936</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2137,7 +2137,7 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>0.2357050961032034</v>
+        <v>0.3050041099217171</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2148,7 +2148,7 @@
         <v>113</v>
       </c>
       <c r="C113">
-        <v>0.2338132146065728</v>
+        <v>0.2870763690912561</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>0.2316763962282093</v>
+        <v>0.2406032938234317</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>115</v>
       </c>
       <c r="C115">
-        <v>0.2228583635701459</v>
+        <v>0.2338132146065728</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2181,7 +2181,7 @@
         <v>116</v>
       </c>
       <c r="C116">
-        <v>0.1819931278297927</v>
+        <v>0.221845293465881</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>117</v>
       </c>
       <c r="C117">
-        <v>0.1410839103105522</v>
+        <v>0.2198433118156484</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2203,7 +2203,7 @@
         <v>118</v>
       </c>
       <c r="C118">
-        <v>0.1323729080007957</v>
+        <v>0.2179277529371383</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2214,7 +2214,7 @@
         <v>119</v>
       </c>
       <c r="C119">
-        <v>0.1303828153708786</v>
+        <v>0.1970276704868963</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2225,7 +2225,7 @@
         <v>120</v>
       </c>
       <c r="C120">
-        <v>0.1248794366482592</v>
+        <v>0.1950701780385873</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2236,7 +2236,7 @@
         <v>121</v>
       </c>
       <c r="C121">
-        <v>0.123899176928248</v>
+        <v>0.1927272273149567</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>122</v>
       </c>
       <c r="C122">
-        <v>0.1213912474089803</v>
+        <v>0.1664823196879684</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2258,7 +2258,7 @@
         <v>123</v>
       </c>
       <c r="C123">
-        <v>0.1177809478245717</v>
+        <v>0.1648191503406433</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>124</v>
       </c>
       <c r="C124">
-        <v>0.1122688924823928</v>
+        <v>0.1410839103105522</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2280,7 +2280,7 @@
         <v>125</v>
       </c>
       <c r="C125">
-        <v>0.1100359007626802</v>
+        <v>0.1316997766418051</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>126</v>
       </c>
       <c r="C126">
-        <v>0.109001508133047</v>
+        <v>0.1303828153708786</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2302,7 +2302,7 @@
         <v>127</v>
       </c>
       <c r="C127">
-        <v>0.08929962233817212</v>
+        <v>0.1299905298918763</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2313,7 +2313,7 @@
         <v>128</v>
       </c>
       <c r="C128">
-        <v>0.0609042938416634</v>
+        <v>0.09712530278217124</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2324,7 +2324,7 @@
         <v>129</v>
       </c>
       <c r="C129">
-        <v>0.04421017690012297</v>
+        <v>0.09437256955243534</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2335,7 +2335,7 @@
         <v>130</v>
       </c>
       <c r="C130">
-        <v>0.04414782562549102</v>
+        <v>0.06435347604847286</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2346,7 +2346,7 @@
         <v>131</v>
       </c>
       <c r="C131">
-        <v>0.02468056938493168</v>
+        <v>0.0609042938416634</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2357,7 +2357,7 @@
         <v>132</v>
       </c>
       <c r="C132">
-        <v>0.01610865628737512</v>
+        <v>0.04117700462148077</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2368,7 +2368,7 @@
         <v>133</v>
       </c>
       <c r="C133">
-        <v>0.009223709720290074</v>
+        <v>0.04013638259482899</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>134</v>
       </c>
       <c r="C134">
-        <v>0.005119387438656475</v>
+        <v>0.02803659983777773</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2390,7 +2390,7 @@
         <v>135</v>
       </c>
       <c r="C135">
-        <v>-0.008876238238082923</v>
+        <v>0.009223709720290074</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>136</v>
       </c>
       <c r="C136">
-        <v>-0.0246344973435435</v>
+        <v>0.005119387438656475</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>137</v>
       </c>
       <c r="C137">
-        <v>-0.05399693056820465</v>
+        <v>0.0003872191628139232</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2423,7 +2423,7 @@
         <v>138</v>
       </c>
       <c r="C138">
-        <v>-0.05716182855687857</v>
+        <v>-0.01113625800092444</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2434,7 +2434,7 @@
         <v>139</v>
       </c>
       <c r="C139">
-        <v>-0.06043002276808951</v>
+        <v>-0.04043396375292641</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2445,7 +2445,7 @@
         <v>140</v>
       </c>
       <c r="C140">
-        <v>-0.06538071015048763</v>
+        <v>-0.04725371966537595</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>141</v>
       </c>
       <c r="C141">
-        <v>-0.07601815355156516</v>
+        <v>-0.06043002276808951</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2467,7 +2467,7 @@
         <v>142</v>
       </c>
       <c r="C142">
-        <v>-0.0798913600156308</v>
+        <v>-0.06208677886909431</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2478,7 +2478,7 @@
         <v>143</v>
       </c>
       <c r="C143">
-        <v>-0.08038676929998689</v>
+        <v>-0.07601815355156516</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2489,7 +2489,7 @@
         <v>144</v>
       </c>
       <c r="C144">
-        <v>-0.09534890347450309</v>
+        <v>-0.0798913600156308</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2500,7 +2500,7 @@
         <v>145</v>
       </c>
       <c r="C145">
-        <v>-0.1009962901361974</v>
+        <v>-0.09534890347450309</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>146</v>
       </c>
       <c r="C146">
-        <v>-0.161932600835734</v>
+        <v>-0.1302944433664091</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2522,7 +2522,7 @@
         <v>147</v>
       </c>
       <c r="C147">
-        <v>-0.1788562352215971</v>
+        <v>-0.161932600835734</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>148</v>
       </c>
       <c r="C148">
-        <v>-0.1815261211566687</v>
+        <v>-0.16679280943118</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2544,7 +2544,7 @@
         <v>149</v>
       </c>
       <c r="C149">
-        <v>-0.1958767096120506</v>
+        <v>-0.1814237688996444</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2555,7 +2555,7 @@
         <v>150</v>
       </c>
       <c r="C150">
-        <v>-0.2072159294231402</v>
+        <v>-0.1815799550092366</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2566,7 +2566,7 @@
         <v>151</v>
       </c>
       <c r="C151">
-        <v>-0.2141947178648151</v>
+        <v>-0.1852105698212677</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2577,7 +2577,7 @@
         <v>152</v>
       </c>
       <c r="C152">
-        <v>-0.2224033882825867</v>
+        <v>-0.2045477606390828</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2588,7 +2588,7 @@
         <v>153</v>
       </c>
       <c r="C153">
-        <v>-0.2414750329751967</v>
+        <v>-0.2224033882825867</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2599,7 +2599,7 @@
         <v>154</v>
       </c>
       <c r="C154">
-        <v>-0.2442968684181921</v>
+        <v>-0.2414750329751967</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2610,7 +2610,7 @@
         <v>155</v>
       </c>
       <c r="C155">
-        <v>-0.2467052891142671</v>
+        <v>-0.2610734100289539</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2621,7 +2621,7 @@
         <v>156</v>
       </c>
       <c r="C156">
-        <v>-0.2610734100289539</v>
+        <v>-0.2625538479823711</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2632,7 +2632,7 @@
         <v>157</v>
       </c>
       <c r="C157">
-        <v>-0.2625538479823711</v>
+        <v>-0.2744568251010983</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2643,7 +2643,7 @@
         <v>158</v>
       </c>
       <c r="C158">
-        <v>-0.3022676033217262</v>
+        <v>-0.3023077557936276</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>159</v>
       </c>
       <c r="C159">
-        <v>-0.3023077557936276</v>
+        <v>-0.305833731754219</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2687,7 +2687,7 @@
         <v>162</v>
       </c>
       <c r="C162">
-        <v>-0.3513138742449267</v>
+        <v>-0.3291950230898169</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2698,7 +2698,7 @@
         <v>163</v>
       </c>
       <c r="C163">
-        <v>-0.3923761019630588</v>
+        <v>-0.3664687833245981</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2709,7 +2709,7 @@
         <v>164</v>
       </c>
       <c r="C164">
-        <v>-0.4253090499984014</v>
+        <v>-0.3923761019630588</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2720,7 +2720,7 @@
         <v>165</v>
       </c>
       <c r="C165">
-        <v>-0.4308009185530088</v>
+        <v>-0.5146453598911558</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2731,7 +2731,7 @@
         <v>166</v>
       </c>
       <c r="C166">
-        <v>-0.431547064243376</v>
+        <v>-0.5782745635954416</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2742,7 +2742,7 @@
         <v>167</v>
       </c>
       <c r="C167">
-        <v>-0.5146453598911558</v>
+        <v>-0.6250050540241977</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2753,7 +2753,7 @@
         <v>168</v>
       </c>
       <c r="C168">
-        <v>-0.5949076689231373</v>
+        <v>-0.6336753631578969</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2764,7 +2764,7 @@
         <v>169</v>
       </c>
       <c r="C169">
-        <v>-0.6111072085034076</v>
+        <v>-0.6592043456798056</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>170</v>
       </c>
       <c r="C170">
-        <v>-0.6139034340945894</v>
+        <v>-0.8167783111707233</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2786,7 +2786,7 @@
         <v>171</v>
       </c>
       <c r="C171">
-        <v>-0.7569455453974929</v>
+        <v>-1.067785659743978</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2797,7 +2797,7 @@
         <v>172</v>
       </c>
       <c r="C172">
-        <v>-0.8167783111707233</v>
+        <v>-1.171004790407063</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2808,7 +2808,7 @@
         <v>173</v>
       </c>
       <c r="C173">
-        <v>-0.9054509866540552</v>
+        <v>-1.347480185745216</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2819,7 +2819,7 @@
         <v>174</v>
       </c>
       <c r="C174">
-        <v>-0.9614411123261519</v>
+        <v>-1.441682174941395</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2830,7 +2830,7 @@
         <v>175</v>
       </c>
       <c r="C175">
-        <v>-1.024821410269208</v>
+        <v>-1.519822745051133</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2841,7 +2841,7 @@
         <v>176</v>
       </c>
       <c r="C176">
-        <v>-1.330352105132596</v>
+        <v>-1.593951541987135</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2852,7 +2852,7 @@
         <v>177</v>
       </c>
       <c r="C177">
-        <v>-1.75548303784542</v>
+        <v>-1.695187957342033</v>
       </c>
     </row>
   </sheetData>

--- a/valorizacao_anual/ranking_de_2016_a_2021_feito_em_30_01.xlsx
+++ b/valorizacao_anual/ranking_de_2016_a_2021_feito_em_30_01.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1998a\Documents\GitHub\BOLSISTAS_DA_21\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D045ECF-E56F-4BCA-BF9A-0AB3E75CCA7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Ativo</t>
   </si>
@@ -58,153 +64,411 @@
     <t>ELET3</t>
   </si>
   <si>
+    <t>SQIA3</t>
+  </si>
+  <si>
+    <t>TRIS3</t>
+  </si>
+  <si>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>SAPR11</t>
+  </si>
+  <si>
+    <t>JHSF3</t>
+  </si>
+  <si>
+    <t>VALE3</t>
+  </si>
+  <si>
+    <t>POSI3</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>RENT3</t>
+  </si>
+  <si>
+    <t>SIMH3</t>
+  </si>
+  <si>
+    <t>VULC3</t>
+  </si>
+  <si>
+    <t>ALPA4</t>
+  </si>
+  <si>
+    <t>TGMA3</t>
+  </si>
+  <si>
+    <t>QUAL3</t>
+  </si>
+  <si>
+    <t>CARD3</t>
+  </si>
+  <si>
+    <t>CNTO3</t>
+  </si>
+  <si>
+    <t>BTOW3</t>
+  </si>
+  <si>
+    <t>RAPT4</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>LOGN3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>PETR4</t>
+  </si>
+  <si>
+    <t>SEER3</t>
+  </si>
+  <si>
+    <t>SLCE3</t>
+  </si>
+  <si>
+    <t>PTBL3</t>
+  </si>
+  <si>
+    <t>RLOG3</t>
+  </si>
+  <si>
+    <t>TEND3</t>
+  </si>
+  <si>
+    <t>SEQL3</t>
+  </si>
+  <si>
+    <t>RADL3</t>
+  </si>
+  <si>
+    <t>PNVL3</t>
+  </si>
+  <si>
+    <t>AERI3</t>
+  </si>
+  <si>
+    <t>ARZZ3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>SUZB3</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>BRSR6</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>MOVI3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>RAIL3</t>
+  </si>
+  <si>
+    <t>NGRD3</t>
+  </si>
+  <si>
+    <t>BIDI11</t>
+  </si>
+  <si>
+    <t>TOTS3</t>
+  </si>
+  <si>
+    <t>RRRP3</t>
+  </si>
+  <si>
+    <t>MRVE3</t>
+  </si>
+  <si>
+    <t>ANIM3</t>
+  </si>
+  <si>
+    <t>TRPL4</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>OMGE3</t>
+  </si>
+  <si>
+    <t>MILS3</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>TAEE11</t>
+  </si>
+  <si>
+    <t>OIBR3</t>
+  </si>
+  <si>
+    <t>LOGG3</t>
+  </si>
+  <si>
+    <t>ABCB4</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
+    <t>PETZ3</t>
+  </si>
+  <si>
+    <t>TCFO3</t>
+  </si>
+  <si>
+    <t>AGRO3</t>
+  </si>
+  <si>
+    <t>CESP6</t>
+  </si>
+  <si>
+    <t>BOVA11</t>
+  </si>
+  <si>
+    <t>LIGT3</t>
+  </si>
+  <si>
+    <t>STBP3</t>
+  </si>
+  <si>
+    <t>IBOV</t>
+  </si>
+  <si>
+    <t>LINX3</t>
+  </si>
+  <si>
+    <t>SOMA3</t>
+  </si>
+  <si>
+    <t>AZUL4</t>
+  </si>
+  <si>
+    <t>LJQQ3</t>
+  </si>
+  <si>
+    <t>BRDT3</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>NEOE3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>AMAR3</t>
+  </si>
+  <si>
+    <t>ALSO3</t>
+  </si>
+  <si>
+    <t>SMTO3</t>
+  </si>
+  <si>
+    <t>PSSA3</t>
+  </si>
+  <si>
+    <t>POMO4</t>
+  </si>
+  <si>
+    <t>PGMN3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>PARD3</t>
+  </si>
+  <si>
+    <t>PFRM3</t>
+  </si>
+  <si>
+    <t>WIZS3</t>
+  </si>
+  <si>
+    <t>VIVA3</t>
+  </si>
+  <si>
+    <t>TIET11</t>
+  </si>
+  <si>
+    <t>MDIA3</t>
+  </si>
+  <si>
+    <t>LAVV3</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>ODPV3</t>
+  </si>
+  <si>
+    <t>BBSE3</t>
+  </si>
+  <si>
+    <t>BRML3</t>
+  </si>
+  <si>
+    <t>CAML3</t>
+  </si>
+  <si>
+    <t>AMBP3</t>
+  </si>
+  <si>
+    <t>MYPK3</t>
+  </si>
+  <si>
+    <t>JPSA3</t>
+  </si>
+  <si>
+    <t>LAME4</t>
+  </si>
+  <si>
+    <t>TUPY3</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>KLBN11</t>
+  </si>
+  <si>
+    <t>PCAR3</t>
+  </si>
+  <si>
+    <t>BOAS3</t>
+  </si>
+  <si>
+    <t>CEAB3</t>
+  </si>
+  <si>
+    <t>MELK3</t>
+  </si>
+  <si>
+    <t>MTRE3</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>PLPL3</t>
+  </si>
+  <si>
+    <t>BRKM5</t>
+  </si>
+  <si>
+    <t>BMGB4</t>
+  </si>
+  <si>
+    <t>SMLS3</t>
+  </si>
+  <si>
+    <t>BRPR3</t>
+  </si>
+  <si>
+    <t>PRNR3</t>
+  </si>
+  <si>
+    <t>MDNE3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>LEVE3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
+  </si>
+  <si>
+    <t>BKBR3</t>
+  </si>
+  <si>
+    <t>AALR3</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
+    <t>BBRK3</t>
+  </si>
+  <si>
+    <t>ESPA3</t>
+  </si>
+  <si>
     <t>GOLL4</t>
   </si>
   <si>
-    <t>SQIA3</t>
-  </si>
-  <si>
-    <t>TRIS3</t>
-  </si>
-  <si>
-    <t>USIM5</t>
-  </si>
-  <si>
     <t>GOAU4</t>
   </si>
   <si>
-    <t>SAPR11</t>
-  </si>
-  <si>
-    <t>JHSF3</t>
-  </si>
-  <si>
-    <t>VALE3</t>
-  </si>
-  <si>
-    <t>POSI3</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>RENT3</t>
-  </si>
-  <si>
-    <t>SIMH3</t>
-  </si>
-  <si>
-    <t>VULC3</t>
-  </si>
-  <si>
-    <t>ALPA4</t>
-  </si>
-  <si>
     <t>GNDI3</t>
   </si>
   <si>
-    <t>TGMA3</t>
-  </si>
-  <si>
-    <t>QUAL3</t>
-  </si>
-  <si>
-    <t>CARD3</t>
-  </si>
-  <si>
     <t>GGBR4</t>
   </si>
   <si>
-    <t>CNTO3</t>
-  </si>
-  <si>
-    <t>BTOW3</t>
-  </si>
-  <si>
-    <t>RAPT4</t>
-  </si>
-  <si>
     <t>CSMG3</t>
   </si>
   <si>
     <t>FLRY3</t>
   </si>
   <si>
-    <t>LOGN3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>CASH3</t>
-  </si>
-  <si>
     <t>EZTC3</t>
   </si>
   <si>
-    <t>PETR4</t>
-  </si>
-  <si>
-    <t>SEER3</t>
-  </si>
-  <si>
     <t>ENEV3</t>
   </si>
   <si>
-    <t>SLCE3</t>
-  </si>
-  <si>
-    <t>PTBL3</t>
-  </si>
-  <si>
-    <t>RLOG3</t>
-  </si>
-  <si>
     <t>FESA4</t>
   </si>
   <si>
-    <t>TEND3</t>
-  </si>
-  <si>
-    <t>SEQL3</t>
-  </si>
-  <si>
-    <t>RADL3</t>
-  </si>
-  <si>
-    <t>PNVL3</t>
-  </si>
-  <si>
     <t>HAPV3</t>
   </si>
   <si>
     <t>CYRE3</t>
   </si>
   <si>
-    <t>AERI3</t>
-  </si>
-  <si>
-    <t>ARZZ3</t>
-  </si>
-  <si>
     <t>CSAN3</t>
   </si>
   <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>SUZB3</t>
-  </si>
-  <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
-    <t>BRSR6</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
     <t>GUAR3</t>
   </si>
   <si>
@@ -214,24 +478,9 @@
     <t>CPLE6</t>
   </si>
   <si>
-    <t>SANB11</t>
-  </si>
-  <si>
     <t>ENGI11</t>
   </si>
   <si>
-    <t>MOVI3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>RAIL3</t>
-  </si>
-  <si>
-    <t>NGRD3</t>
-  </si>
-  <si>
     <t>EVEN3</t>
   </si>
   <si>
@@ -241,12 +490,6 @@
     <t>ECOR3</t>
   </si>
   <si>
-    <t>BIDI11</t>
-  </si>
-  <si>
-    <t>TOTS3</t>
-  </si>
-  <si>
     <t>ENAT3</t>
   </si>
   <si>
@@ -256,305 +499,74 @@
     <t>DTEX3</t>
   </si>
   <si>
-    <t>RRRP3</t>
-  </si>
-  <si>
-    <t>MRVE3</t>
-  </si>
-  <si>
-    <t>ANIM3</t>
-  </si>
-  <si>
-    <t>TRPL4</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
     <t>CVCB3</t>
   </si>
   <si>
-    <t>OMGE3</t>
-  </si>
-  <si>
-    <t>MILS3</t>
-  </si>
-  <si>
     <t>ENJU3</t>
   </si>
   <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>TAEE11</t>
-  </si>
-  <si>
-    <t>OIBR3</t>
-  </si>
-  <si>
-    <t>LOGG3</t>
-  </si>
-  <si>
-    <t>ABCB4</t>
-  </si>
-  <si>
-    <t>SBSP3</t>
-  </si>
-  <si>
     <t>CPFE3</t>
   </si>
   <si>
-    <t>PETZ3</t>
-  </si>
-  <si>
-    <t>TCFO3</t>
-  </si>
-  <si>
-    <t>AGRO3</t>
-  </si>
-  <si>
     <t>HBOR3</t>
   </si>
   <si>
-    <t>CESP6</t>
-  </si>
-  <si>
     <t>ITSA4</t>
   </si>
   <si>
-    <t>BOVA11</t>
-  </si>
-  <si>
-    <t>LIGT3</t>
-  </si>
-  <si>
-    <t>STBP3</t>
-  </si>
-  <si>
-    <t>IBOV</t>
-  </si>
-  <si>
-    <t>LINX3</t>
-  </si>
-  <si>
-    <t>SOMA3</t>
-  </si>
-  <si>
     <t>ITUB4</t>
   </si>
   <si>
-    <t>AZUL4</t>
-  </si>
-  <si>
     <t>JBSS3</t>
   </si>
   <si>
-    <t>LJQQ3</t>
-  </si>
-  <si>
-    <t>BRDT3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>NEOE3</t>
-  </si>
-  <si>
     <t>CURY3</t>
   </si>
   <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>AMAR3</t>
-  </si>
-  <si>
-    <t>ALSO3</t>
-  </si>
-  <si>
-    <t>SMTO3</t>
-  </si>
-  <si>
     <t>IGTA3</t>
   </si>
   <si>
-    <t>PSSA3</t>
-  </si>
-  <si>
     <t>EGIE3</t>
   </si>
   <si>
-    <t>POMO4</t>
-  </si>
-  <si>
-    <t>PGMN3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>PARD3</t>
-  </si>
-  <si>
     <t>ENBR3</t>
   </si>
   <si>
-    <t>PFRM3</t>
-  </si>
-  <si>
-    <t>WIZS3</t>
-  </si>
-  <si>
     <t>HYPE3</t>
   </si>
   <si>
-    <t>VIVA3</t>
-  </si>
-  <si>
-    <t>TIET11</t>
-  </si>
-  <si>
-    <t>MDIA3</t>
-  </si>
-  <si>
     <t>GRND3</t>
   </si>
   <si>
-    <t>LAVV3</t>
-  </si>
-  <si>
-    <t>RDOR3</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
-  </si>
-  <si>
-    <t>ODPV3</t>
-  </si>
-  <si>
     <t>HGTX3</t>
   </si>
   <si>
-    <t>BBSE3</t>
-  </si>
-  <si>
     <t>GMAT3</t>
   </si>
   <si>
-    <t>BRML3</t>
-  </si>
-  <si>
     <t>HBSA3</t>
   </si>
   <si>
-    <t>CAML3</t>
-  </si>
-  <si>
-    <t>AMBP3</t>
-  </si>
-  <si>
-    <t>MYPK3</t>
-  </si>
-  <si>
-    <t>JPSA3</t>
-  </si>
-  <si>
-    <t>LAME4</t>
-  </si>
-  <si>
-    <t>TUPY3</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>KLBN11</t>
-  </si>
-  <si>
-    <t>PCAR3</t>
-  </si>
-  <si>
-    <t>BOAS3</t>
-  </si>
-  <si>
-    <t>CEAB3</t>
-  </si>
-  <si>
-    <t>MELK3</t>
-  </si>
-  <si>
-    <t>MTRE3</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>PLPL3</t>
-  </si>
-  <si>
-    <t>BRKM5</t>
-  </si>
-  <si>
     <t>DMFV3</t>
   </si>
   <si>
-    <t>BMGB4</t>
-  </si>
-  <si>
-    <t>SMLS3</t>
-  </si>
-  <si>
-    <t>BRPR3</t>
-  </si>
-  <si>
-    <t>PRNR3</t>
-  </si>
-  <si>
-    <t>MDNE3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>LEVE3</t>
-  </si>
-  <si>
     <t>COGN3</t>
   </si>
   <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>BKBR3</t>
-  </si>
-  <si>
-    <t>AALR3</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
     <t>EMBR3</t>
   </si>
   <si>
     <t>GFSA3</t>
   </si>
   <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
     <t>VLID3</t>
-  </si>
-  <si>
-    <t>BBRK3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,11 +629,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -663,7 +683,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -695,9 +715,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -729,6 +767,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -904,14 +960,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C177"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="H187" sqref="H187"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -930,7 +988,7 @@
         <v>12.26857601034515</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -938,10 +996,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>5.403998419159723</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>5.4039984191597226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -949,10 +1007,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>4.347110610166965</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>4.3471106101669648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -963,7 +1021,7 @@
         <v>3.942165093313081</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -971,10 +1029,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>3.382828854972813</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>3.3828288549728129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,7 +1043,7 @@
         <v>3.360066763412219</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -993,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>3.031989239091519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>3.0319892390915189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1007,7 +1065,7 @@
         <v>2.98072730392416</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1015,10 +1073,10 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>2.894118868697558</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>2.8941188686975581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1026,10 +1084,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>2.874886067231789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>2.8748860672317891</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1037,10 +1095,10 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>2.854936521828433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2.8549365218284328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1048,10 +1106,10 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>2.823478006712102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2.8234780067121021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1059,10 +1117,10 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>2.744937632090315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2.696266408200608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1070,10 +1128,10 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>2.696266408200608</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2.6924434807961179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1081,10 +1139,10 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>2.692443480796118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>2.655340980976026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1092,10 +1150,10 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>2.655340980976026</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>2.2269637020957438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1103,10 +1161,10 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>2.245064421335146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>2.0620310681906928</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1114,10 +1172,10 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>2.226963702095744</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>1.9988911676623611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1125,10 +1183,10 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>2.062031068190693</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>1.9963989316383359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1136,10 +1194,10 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>1.998891167662361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>1.9765362810736711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1147,10 +1205,10 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>1.996398931638336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>1.9369281117351389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1158,10 +1216,10 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>1.976536281073671</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>1.8910882578475641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1169,10 +1227,10 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>1.936928111735139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>1.793320855377823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1180,10 +1238,10 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>1.891088257847564</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>1.776103958456857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1191,10 +1249,10 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>1.793320855377823</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>1.7571149139406079</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1202,10 +1260,10 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>1.776103958456857</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>1.6897155654363529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1213,10 +1271,10 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>1.762453700815603</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>1.6670485687090419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1224,10 +1282,10 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>1.757114913940608</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>1.5718670376782311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1235,10 +1293,10 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>1.689715565436353</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>1.541244851505239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1246,10 +1304,10 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>1.667048568709042</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>1.4961466846064271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1257,10 +1315,10 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>1.577389459978956</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>1.483702434537044</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1268,10 +1326,10 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>1.571867037678231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>1.445682454832981</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1279,10 +1337,10 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>1.541244851505239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>1.432327490537149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1290,10 +1348,10 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>1.496146684606427</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>1.384005235055414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1301,10 +1359,10 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>1.472003971876927</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>1.3174647105941051</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1312,10 +1370,10 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>1.469758623762349</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>1.313264420926332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1323,10 +1381,10 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>1.445682454832981</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>1.2434222942700059</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1334,10 +1392,10 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>1.432327490537149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>1.2399120285927809</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1345,10 +1403,10 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>1.384005235055414</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>1.205574164129535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1356,10 +1414,10 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>1.318960083622679</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>1.13273966178896</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1367,10 +1425,10 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>1.317464710594105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>1.127011660154734</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1378,10 +1436,10 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>1.313264420926332</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>1.1026831235015131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1389,10 +1447,10 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>1.281042480661993</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>1.086997637526649</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1400,10 +1458,10 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>1.243422294270006</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.99642692755555706</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1411,10 +1469,10 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>1.239912028592781</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.95727275851487925</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1422,10 +1480,10 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>1.205574164129535</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.93876017597067363</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1433,10 +1491,10 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>1.203221766137546</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.9364399858466117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1444,10 +1502,10 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>1.13273966178896</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.93638867969801765</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1455,10 +1513,10 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>1.127011660154734</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.9059681050742705</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1466,10 +1524,10 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>1.102683123501513</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.905041779335376</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1477,10 +1535,10 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>1.086997637526649</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.82655301468372233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1488,10 +1546,10 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>1.043700371073147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.79459303438467699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1499,10 +1557,10 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>1.040709186374487</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.78364361253307013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1510,10 +1568,10 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>0.9964269275555571</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.7794785385279297</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1521,10 +1579,10 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>0.9572727585148793</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.76970208989802158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1532,10 +1590,10 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>0.9567150605040122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>0.74915796482626151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1543,10 +1601,10 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>0.9387601759706736</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.7424797587390094</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1554,10 +1612,10 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>0.9364399858466117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.70300538979866634</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1565,10 +1623,10 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>0.9363886796980176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.69884555623864453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1576,10 +1634,10 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>0.9059681050742705</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.69641844907867212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1587,10 +1645,10 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>0.905041779335376</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.68840610774865718</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1598,10 +1656,10 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>0.8892646528770183</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.67776884692342154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1609,10 +1667,10 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>0.863240584057298</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.59853924359044386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1620,10 +1678,10 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>0.8505948479888048</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.59796150672101311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1631,10 +1689,10 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>0.8265530146837223</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.58008018123003202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1642,10 +1700,10 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>0.819731809768773</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.57855643901136911</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1653,10 +1711,10 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>0.794593034384677</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.57506106654036337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1664,10 +1722,10 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>0.7836436125330701</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.55121366708881414</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1675,10 +1733,10 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>0.7794785385279297</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.53424551817200694</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1686,10 +1744,10 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>0.7697020898980216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.52058876177628099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1697,10 +1755,10 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>0.7693220850587057</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.48205859271959328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1708,10 +1766,10 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>0.7638837879168292</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.45903745927630402</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1719,10 +1777,10 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>0.7548240318564525</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.45597305359757612</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1730,10 +1788,10 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0.7491579648262615</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.4256622373476483</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1741,10 +1799,10 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>0.7424797587390094</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.41657006026929733</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1752,10 +1810,10 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>0.7375561715640172</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.41424013502310708</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1763,10 +1821,10 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>0.7154331184568176</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.41098885407157498</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1774,10 +1832,10 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>0.7072792261310887</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.38936111657709488</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1785,10 +1843,10 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>0.7030053897986663</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.37683712044848339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1796,10 +1854,10 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>0.6988455562386445</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.36942867811728458</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1807,10 +1865,10 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>0.6964184490786721</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.33795868764692949</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1818,10 +1876,10 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>0.6884061077486572</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.32061297894199359</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1829,10 +1887,10 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>0.6777688469234215</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.30500410992171711</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1840,10 +1898,10 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>0.6107257199205626</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.28707636909125611</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1851,10 +1909,10 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>0.5985392435904439</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.24060329382343171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1862,10 +1920,10 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>0.5979615067210131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.221845293465881</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1873,10 +1931,10 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>0.5847740813851672</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.2198433118156484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1884,10 +1942,10 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>0.580080181230032</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.21792775293713831</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1895,10 +1953,10 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>0.5785564390113691</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.19702767048689629</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1906,10 +1964,10 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>0.5750610665403634</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.1927272273149567</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1917,10 +1975,10 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>0.5512136670888141</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.16481915034064329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1928,10 +1986,10 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>0.5342455181720069</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.1410839103105522</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1939,10 +1997,10 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>0.520588761776281</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.1316997766418051</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1950,10 +2008,10 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>0.5115890155806337</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.13038281537087859</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1961,10 +2019,10 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>0.4820585927195933</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>9.7125302782171241E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1972,10 +2030,10 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>0.459037459276304</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>9.4372569552435337E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1983,10 +2041,10 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>0.4559730535975761</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>6.0904293841663397E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1994,10 +2052,10 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>0.4299260564353362</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>4.1177004621480773E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2005,10 +2063,10 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>0.4256622373476483</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>4.013638259482899E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2016,10 +2074,10 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>0.42511980058724</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>9.2237097202900742E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2027,10 +2085,10 @@
         <v>102</v>
       </c>
       <c r="C102">
-        <v>0.4165700602692973</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>5.1193874386564753E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2038,10 +2096,10 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>0.4142401350231071</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>3.8721916281392321E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2049,10 +2107,10 @@
         <v>104</v>
       </c>
       <c r="C104">
-        <v>0.410988854071575</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>-1.1136258000924441E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2060,10 +2118,10 @@
         <v>105</v>
       </c>
       <c r="C105">
-        <v>0.3893611165770949</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>-4.7253719665375948E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2071,10 +2129,10 @@
         <v>106</v>
       </c>
       <c r="C106">
-        <v>0.3768371204484834</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>-6.2086778869094313E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2082,10 +2140,10 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>0.3694286781172846</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>-7.9891360015630797E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2093,10 +2151,10 @@
         <v>108</v>
       </c>
       <c r="C108">
-        <v>0.339726724380806</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>-9.5348903474503088E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2104,10 +2162,10 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>0.3379586876469295</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>-0.13029444336640911</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2115,10 +2173,10 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>0.3352210640516914</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>-0.16193260083573399</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2126,10 +2184,10 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>0.3206129789419936</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>-0.16679280943117999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2137,10 +2195,10 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>0.3050041099217171</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>-0.1814237688996444</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2148,10 +2206,10 @@
         <v>113</v>
       </c>
       <c r="C113">
-        <v>0.2870763690912561</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>-0.1815799550092366</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2159,10 +2217,10 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>0.2406032938234317</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>-0.18521056982126771</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2170,10 +2228,10 @@
         <v>115</v>
       </c>
       <c r="C115">
-        <v>0.2338132146065728</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>-0.20454776063908281</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2181,10 +2239,10 @@
         <v>116</v>
       </c>
       <c r="C116">
-        <v>0.221845293465881</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>-0.22240338828258671</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2192,10 +2250,10 @@
         <v>117</v>
       </c>
       <c r="C117">
-        <v>0.2198433118156484</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>-0.24147503297519671</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2203,10 +2261,10 @@
         <v>118</v>
       </c>
       <c r="C118">
-        <v>0.2179277529371383</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>-0.2610734100289539</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2214,10 +2272,10 @@
         <v>119</v>
       </c>
       <c r="C119">
-        <v>0.1970276704868963</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>-0.26255384798237108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2225,10 +2283,10 @@
         <v>120</v>
       </c>
       <c r="C120">
-        <v>0.1950701780385873</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>-0.27445682510109831</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2236,10 +2294,10 @@
         <v>121</v>
       </c>
       <c r="C121">
-        <v>0.1927272273149567</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>-0.30230775579362762</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2247,10 +2305,10 @@
         <v>122</v>
       </c>
       <c r="C122">
-        <v>0.1664823196879684</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>-0.30583373175421902</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2258,10 +2316,10 @@
         <v>123</v>
       </c>
       <c r="C123">
-        <v>0.1648191503406433</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>-0.3258861820553739</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2269,10 +2327,10 @@
         <v>124</v>
       </c>
       <c r="C124">
-        <v>0.1410839103105522</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>-0.32919502308981691</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2280,10 +2338,10 @@
         <v>125</v>
       </c>
       <c r="C125">
-        <v>0.1316997766418051</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>-0.36646878332459809</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2291,10 +2349,10 @@
         <v>126</v>
       </c>
       <c r="C126">
-        <v>0.1303828153708786</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>-0.39237610196305878</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2302,10 +2360,10 @@
         <v>127</v>
       </c>
       <c r="C127">
-        <v>0.1299905298918763</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>-0.51464535989115578</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2313,10 +2371,10 @@
         <v>128</v>
       </c>
       <c r="C128">
-        <v>0.09712530278217124</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>-0.5782745635954416</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2324,10 +2382,10 @@
         <v>129</v>
       </c>
       <c r="C129">
-        <v>0.09437256955243534</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>-0.6250050540241977</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2335,10 +2393,10 @@
         <v>130</v>
       </c>
       <c r="C130">
-        <v>0.06435347604847286</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>-0.65920434567980557</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2346,10 +2404,10 @@
         <v>131</v>
       </c>
       <c r="C131">
-        <v>0.0609042938416634</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>-0.8167783111707233</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2357,10 +2415,10 @@
         <v>132</v>
       </c>
       <c r="C132">
-        <v>0.04117700462148077</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>-1.0677856597439781</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2368,10 +2426,10 @@
         <v>133</v>
       </c>
       <c r="C133">
-        <v>0.04013638259482899</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>-1.1710047904070631</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2379,10 +2437,10 @@
         <v>134</v>
       </c>
       <c r="C134">
-        <v>0.02803659983777773</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>-1.519822745051133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2390,10 +2448,10 @@
         <v>135</v>
       </c>
       <c r="C135">
-        <v>0.009223709720290074</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>-1.695187957342033</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2401,10 +2459,10 @@
         <v>136</v>
       </c>
       <c r="C136">
-        <v>0.005119387438656475</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2412,10 +2470,10 @@
         <v>137</v>
       </c>
       <c r="C137">
-        <v>0.0003872191628139232</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>2.7449376320903149</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2423,10 +2481,10 @@
         <v>138</v>
       </c>
       <c r="C138">
-        <v>-0.01113625800092444</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>2.2450644213351461</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2434,10 +2492,10 @@
         <v>139</v>
       </c>
       <c r="C139">
-        <v>-0.04043396375292641</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>1.7624537008156029</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2445,10 +2503,10 @@
         <v>140</v>
       </c>
       <c r="C140">
-        <v>-0.04725371966537595</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>1.577389459978956</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2456,10 +2514,10 @@
         <v>141</v>
       </c>
       <c r="C141">
-        <v>-0.06043002276808951</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>1.4720039718769271</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2467,10 +2525,10 @@
         <v>142</v>
       </c>
       <c r="C142">
-        <v>-0.06208677886909431</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>1.469758623762349</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2478,10 +2536,10 @@
         <v>143</v>
       </c>
       <c r="C143">
-        <v>-0.07601815355156516</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>1.3189600836226789</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -2489,10 +2547,10 @@
         <v>144</v>
       </c>
       <c r="C144">
-        <v>-0.0798913600156308</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>1.2810424806619931</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2500,10 +2558,10 @@
         <v>145</v>
       </c>
       <c r="C145">
-        <v>-0.09534890347450309</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>1.2032217661375459</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2511,10 +2569,10 @@
         <v>146</v>
       </c>
       <c r="C146">
-        <v>-0.1302944433664091</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>1.0437003710731469</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2522,10 +2580,10 @@
         <v>147</v>
       </c>
       <c r="C147">
-        <v>-0.161932600835734</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>1.0407091863744871</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2533,10 +2591,10 @@
         <v>148</v>
       </c>
       <c r="C148">
-        <v>-0.16679280943118</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>0.95671506050401223</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2544,10 +2602,10 @@
         <v>149</v>
       </c>
       <c r="C149">
-        <v>-0.1814237688996444</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>0.88926465287701828</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2555,10 +2613,10 @@
         <v>150</v>
       </c>
       <c r="C150">
-        <v>-0.1815799550092366</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>0.86324058405729798</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2566,10 +2624,10 @@
         <v>151</v>
       </c>
       <c r="C151">
-        <v>-0.1852105698212677</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>0.8505948479888048</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -2577,10 +2635,10 @@
         <v>152</v>
       </c>
       <c r="C152">
-        <v>-0.2045477606390828</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>0.81973180976877302</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -2588,10 +2646,10 @@
         <v>153</v>
       </c>
       <c r="C153">
-        <v>-0.2224033882825867</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>0.7693220850587057</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -2599,10 +2657,10 @@
         <v>154</v>
       </c>
       <c r="C154">
-        <v>-0.2414750329751967</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>0.7638837879168292</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -2610,10 +2668,10 @@
         <v>155</v>
       </c>
       <c r="C155">
-        <v>-0.2610734100289539</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>0.75482403185645253</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -2621,10 +2679,10 @@
         <v>156</v>
       </c>
       <c r="C156">
-        <v>-0.2625538479823711</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>0.7375561715640172</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -2632,10 +2690,10 @@
         <v>157</v>
       </c>
       <c r="C157">
-        <v>-0.2744568251010983</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>0.71543311845681756</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -2643,10 +2701,10 @@
         <v>158</v>
       </c>
       <c r="C158">
-        <v>-0.3023077557936276</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>0.70727922613108873</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -2654,10 +2712,10 @@
         <v>159</v>
       </c>
       <c r="C159">
-        <v>-0.305833731754219</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>0.61072571992056257</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -2665,10 +2723,10 @@
         <v>160</v>
       </c>
       <c r="C160">
-        <v>-0.3197724635939349</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>0.58477408138516718</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -2676,10 +2734,10 @@
         <v>161</v>
       </c>
       <c r="C161">
-        <v>-0.3258861820553739</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>0.51158901558063374</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -2687,10 +2745,10 @@
         <v>162</v>
       </c>
       <c r="C162">
-        <v>-0.3291950230898169</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>0.42992605643533621</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -2698,10 +2756,10 @@
         <v>163</v>
       </c>
       <c r="C163">
-        <v>-0.3664687833245981</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>0.42511980058724003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -2709,10 +2767,10 @@
         <v>164</v>
       </c>
       <c r="C164">
-        <v>-0.3923761019630588</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>0.33972672438080598</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -2720,10 +2778,10 @@
         <v>165</v>
       </c>
       <c r="C165">
-        <v>-0.5146453598911558</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>0.33522106405169139</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -2731,10 +2789,10 @@
         <v>166</v>
       </c>
       <c r="C166">
-        <v>-0.5782745635954416</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>0.23381321460657281</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -2742,10 +2800,10 @@
         <v>167</v>
       </c>
       <c r="C167">
-        <v>-0.6250050540241977</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>0.19507017803858731</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -2753,10 +2811,10 @@
         <v>168</v>
       </c>
       <c r="C168">
-        <v>-0.6336753631578969</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>0.16648231968796839</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -2764,10 +2822,10 @@
         <v>169</v>
       </c>
       <c r="C169">
-        <v>-0.6592043456798056</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>0.12999052989187629</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -2775,10 +2833,10 @@
         <v>170</v>
       </c>
       <c r="C170">
-        <v>-0.8167783111707233</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>6.4353476048472857E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -2786,10 +2844,10 @@
         <v>171</v>
       </c>
       <c r="C171">
-        <v>-1.067785659743978</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>2.8036599837777731E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -2797,10 +2855,10 @@
         <v>172</v>
       </c>
       <c r="C172">
-        <v>-1.171004790407063</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>-4.0433963752926412E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -2808,10 +2866,10 @@
         <v>173</v>
       </c>
       <c r="C173">
-        <v>-1.347480185745216</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>-6.0430022768089509E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -2819,10 +2877,10 @@
         <v>174</v>
       </c>
       <c r="C174">
-        <v>-1.441682174941395</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>-7.601815355156516E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -2830,10 +2888,10 @@
         <v>175</v>
       </c>
       <c r="C175">
-        <v>-1.519822745051133</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>-0.31977246359393491</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -2841,10 +2899,10 @@
         <v>176</v>
       </c>
       <c r="C176">
-        <v>-1.593951541987135</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>-0.63367536315789685</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -2852,7 +2910,29 @@
         <v>177</v>
       </c>
       <c r="C177">
-        <v>-1.695187957342033</v>
+        <v>-1.3474801857452161</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>178</v>
+      </c>
+      <c r="C178">
+        <v>-1.4416821749413951</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179">
+        <v>-1.5939515419871351</v>
       </c>
     </row>
   </sheetData>
